--- a/01_作品/01_個人制作/02_ALTER_EGO/01_開発環境/00_プロジェクト/data/Stage/SetStage001.xlsx
+++ b/01_作品/01_個人制作/02_ALTER_EGO/01_開発環境/00_プロジェクト/data/Stage/SetStage001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Visual Studio 2019\ALTER_EGO\data\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB56D6CC-4F6E-4FD0-A9B4-E845EEEA4E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C63455-3A7D-4E24-A1AF-21CAC4CD26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD8E58BB-81B8-4034-8110-50BAB13E7D87}"/>
+    <workbookView xWindow="6084" yWindow="1104" windowWidth="11076" windowHeight="9168" xr2:uid="{CD8E58BB-81B8-4034-8110-50BAB13E7D87}"/>
   </bookViews>
   <sheets>
     <sheet name="SetStage001" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>5_B_90</t>
+    <t>4_0_A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4_A_0</t>
+    <t>5_90_B</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4_B_0</t>
+    <t>4_0_B</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5_A_0</t>
+    <t>5_0_A</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -123,74 +123,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -235,7 +172,188 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,7 +696,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -848,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1105,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -1332,56 +1450,32 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A5:N5 P5:R5 A6:R8 A9:C9 F9:L9 N9:O9 Q9:R9 AQ9:XFD20 A10:R10 A13:BM22 AE21:XFD21 A22:XFD1048576 A11:A12 B12:BM12 A1:XFD1 A2:R4 U9:BM11 U2:XFD8 T2:T11 B11:S11 S2:S10">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>6</formula>
+  <conditionalFormatting sqref="A1:XFD1 A2:R4 S2:S10 T2:XFD11 P5:R5 A6:R8 A9:C9 F9:L9 N9:O9 Q9:R9 A10:R10 B11:S11 A11:A12 B12:XFD12 A13:XFD1048576 A5:N5">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"4_0_B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
-      <formula>"4_A_0"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"5_90_B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>"5_A_0"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A2:R4 U2:XFD8 S2:S10 T2:T11 P5:R5 A6:R8 A9:C9 F9:L9 N9:O9 Q9:R9 U9:BM11 AQ9:XFD20 A10:R10 B11:S11 A11:A12 B12:BM12 A13:BM22 AE21:XFD21 A22:XFD1048576 A5:N5">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"4_0_A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"5_0_A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:N5 P5:R5 A6:R8 A9:C9 F9:L9 N9:O9 Q9:R9 A10:R10 A13:XFD1048576 A11:A12 B12:XFD12 A1:XFD1 A2:R4 T2:XFD11 B11:S11 S2:S10">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"4_C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"5_C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"4_B_0"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>"5_B_90"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
